--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -80,29 +80,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,9 +95,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,24 +131,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,8 +177,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +194,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,45 +202,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +231,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,169 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +422,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,23 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,197 +522,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -685,7 +685,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1076,7 +1076,7 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.codesansar.com/python-programming/string-interning.htm"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.codesansar.com/python-programming/peephole-optimization.htm"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt" tooltip="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -41,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +59,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,6 +79,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -96,74 +103,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,8 +116,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -186,12 +163,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -202,21 +208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,32 +431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -522,157 +479,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,9 +675,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,7 +1028,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1060,7 +1049,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1068,7 +1057,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Integer and String Interning</t>
   </si>
@@ -35,16 +35,22 @@
   <si>
     <t>https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt</t>
   </si>
+  <si>
+    <t>Pass by assignment</t>
+  </si>
+  <si>
+    <t>https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -78,6 +84,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -87,128 +191,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,181 +235,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,15 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -450,17 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,30 +479,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,157 +487,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,16 +1034,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.8" customWidth="1"/>
-    <col min="2" max="2" width="83.2" customWidth="1"/>
+    <col min="2" max="2" width="94.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1054,18 +1063,31 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.codesansar.com/python-programming/string-interning.htm"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.codesansar.com/python-programming/peephole-optimization.htm"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt" tooltip="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt" tooltip="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Integer and String Interning</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Python Concepts</t>
+  </si>
+  <si>
+    <t>Pass by assignment</t>
+  </si>
+  <si>
+    <t>https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943</t>
+  </si>
+  <si>
+    <t>Time complexity of python datastructure</t>
+  </si>
+  <si>
+    <t>https://wiki.python.org/moin/TimeComplexity</t>
+  </si>
+  <si>
+    <t>Integer &amp; String Interning</t>
   </si>
   <si>
     <t>https://www.codesansar.com/python-programming/string-interning.htm</t>
@@ -30,16 +45,22 @@
     <t>https://www.codesansar.com/python-programming/peephole-optimization.htm</t>
   </si>
   <si>
-    <t>Time complexity of python datastructure</t>
-  </si>
-  <si>
-    <t>https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt</t>
-  </si>
-  <si>
-    <t>Pass by assignment</t>
-  </si>
-  <si>
-    <t>https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943</t>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Visulize</t>
+  </si>
+  <si>
+    <t>https://pythontutor.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YT videos </t>
+  </si>
+  <si>
+    <t>Variable working</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Om2gYU6clE</t>
   </si>
 </sst>
 </file>
@@ -47,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -63,29 +84,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="C059"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+      <name val="C059"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -93,14 +104,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,7 +127,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,59 +171,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -190,6 +178,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -197,24 +202,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,49 +248,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,133 +404,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +442,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,21 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -496,181 +539,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,12 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,60 +1047,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31.8" customWidth="1"/>
-    <col min="2" max="2" width="94.8" customWidth="1"/>
+    <col min="1" max="1" width="31.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.8" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" ht="30" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.codesansar.com/python-programming/string-interning.htm"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.codesansar.com/python-programming/peephole-optimization.htm"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt" tooltip="https://www.ics.uci.edu/~pattis/ICS-33/lectures/complexitypython.txt"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://medium.com/@devyjoneslocker/understanding-pythons-pass-by-assignment-in-the-backdrop-of-pass-by-value-vs-9f5cc602f943"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://wiki.python.org/moin/TimeComplexity" tooltip="https://wiki.python.org/moin/TimeComplexity"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.codesansar.com/python-programming/string-interning.htm"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.codesansar.com/python-programming/peephole-optimization.htm"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://pythontutor.com/"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.youtube.com/watch?v=0Om2gYU6clE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -60,7 +60,7 @@
     <t>Variable working</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=0Om2gYU6clE</t>
+    <t>https://www.youtube.com/watch?v=Bz3ir-vKqkk</t>
   </si>
 </sst>
 </file>
@@ -68,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -103,6 +103,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -110,9 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,114 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,67 +248,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,115 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +499,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,167 +539,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,8 +1049,8 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1130,7 +1130,7 @@
     <hyperlink ref="B4" r:id="rId3" display="https://www.codesansar.com/python-programming/string-interning.htm"/>
     <hyperlink ref="B5" r:id="rId4" display="https://www.codesansar.com/python-programming/peephole-optimization.htm"/>
     <hyperlink ref="B8" r:id="rId5" display="https://pythontutor.com/"/>
-    <hyperlink ref="B11" r:id="rId6" display="https://www.youtube.com/watch?v=0Om2gYU6clE"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.youtube.com/watch?v=Bz3ir-vKqkk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Python/Articles.xlsx
+++ b/Python/Articles.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7845"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,12 +79,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,16 +95,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="C059"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="C059"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
@@ -103,9 +116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +139,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -128,102 +156,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -233,7 +165,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +261,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,13 +291,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,31 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,25 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,91 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -495,17 +499,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +518,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,148 +557,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,60 +709,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1050,13 +1063,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="94.8" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7962962962963" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1147,7 +1160,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1164,7 +1177,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
